--- a/data/trans_dic/P25A$preocupacion-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,66</t>
+          <t>0,0; 47,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,67</t>
+          <t>0,0; 41,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,27 +706,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,04</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 35,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,74</t>
+          <t>0,0; 23,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 23,79</t>
+          <t>2,64; 22,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,81</t>
+          <t>0,0; 22,86</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 22,68</t>
+          <t>2,31; 23,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,04</t>
+          <t>1,71; 14,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 22,72</t>
+          <t>2,23; 21,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 26,32</t>
+          <t>8,68; 26,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,9</t>
+          <t>2,53; 14,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,09</t>
+          <t>3,21; 18,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 20,84</t>
+          <t>7,38; 20,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 12,19</t>
+          <t>3,72; 12,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 16,27</t>
+          <t>4,52; 17,36</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 20,33</t>
+          <t>5,76; 21,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 19,8</t>
+          <t>6,33; 19,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 17,37</t>
+          <t>3,99; 17,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,07</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 15,06</t>
+          <t>4,0; 15,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,69</t>
+          <t>2,07; 12,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,38</t>
+          <t>3,67; 12,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,88</t>
+          <t>6,9; 15,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,11</t>
+          <t>3,55; 11,76</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 15,71</t>
+          <t>4,68; 15,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 14,51</t>
+          <t>5,68; 14,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 22,25</t>
+          <t>7,72; 21,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 18,89</t>
+          <t>2,12; 19,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 20,03</t>
+          <t>4,94; 20,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 22,41</t>
+          <t>7,22; 22,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,52</t>
+          <t>4,83; 13,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,53</t>
+          <t>6,9; 14,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 20,15</t>
+          <t>9,63; 20,12</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,88</t>
+          <t>2,23; 9,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 15,04</t>
+          <t>4,51; 15,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 19,41</t>
+          <t>7,04; 18,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,86</t>
+          <t>0,0; 35,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,29</t>
+          <t>0,0; 13,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,64</t>
+          <t>0,0; 15,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,28</t>
+          <t>2,58; 9,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 13,54</t>
+          <t>4,44; 13,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,38</t>
+          <t>5,48; 15,32</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1236,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,43</t>
+          <t>2,32; 10,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,28</t>
+          <t>1,33; 7,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 24,9</t>
+          <t>10,9; 25,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,6</t>
+          <t>0,0; 33,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,22 +1261,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,02</t>
+          <t>0,0; 17,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,65</t>
+          <t>2,69; 9,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,47</t>
+          <t>1,21; 7,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 20,96</t>
+          <t>9,0; 21,44</t>
         </is>
       </c>
     </row>
@@ -1345,22 +1346,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 13,0</t>
+          <t>3,71; 12,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,31</t>
+          <t>2,77; 12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,54</t>
+          <t>4,48; 15,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,09</t>
+          <t>0,0; 57,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 13,08</t>
+          <t>4,01; 13,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,5</t>
+          <t>2,2; 11,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 14,29</t>
+          <t>4,27; 14,46</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,12</t>
+          <t>5,79; 9,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,82</t>
+          <t>9,35; 14,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,7</t>
+          <t>5,27; 12,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,74</t>
+          <t>5,53; 11,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,82</t>
+          <t>5,52; 11,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,75</t>
+          <t>6,07; 9,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,65</t>
+          <t>6,36; 9,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,71</t>
+          <t>8,84; 12,86</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la preocupación por sus efectos nocivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2268</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2071</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3304</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6910</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1827</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4784</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5934</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6362</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>951; 8085</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5932</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4798</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5959</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5410</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14484</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10757</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10041</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>913; 9085</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1247; 10382</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1083; 10478</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6079; 18558</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2101; 12234</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1860; 10866</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8084; 22852</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5789; 18694</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4822; 18500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13559</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6749</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1522</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10667</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4721</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11242</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24226</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4892; 17916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7111; 21807</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2964; 12928</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7720</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4969; 19189</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1819; 10657</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5545; 18940</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16315; 36862</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5760; 19084</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10911</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16207</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15386</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10773</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12439</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15610</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26981</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5872; 19321</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9647; 25208</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8351; 23359</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1243; 11331</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4523; 18371</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6372; 20187</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8904; 25664</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18050; 38707</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18917; 39511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6649</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12032</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15843</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1858</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7941</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14959</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17700</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2862; 12415</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6331; 22176</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9356; 24908</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6154</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7165</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8565</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3758; 14547</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8531; 25074</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10408; 29103</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6582</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6120</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20344</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7478</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6120</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21427</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2832; 12654</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2159; 12472</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13429; 31199</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4571</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1814</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4461</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3645; 13421</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2091; 12843</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13409; 31939</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8139</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8264</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9549</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9318</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8264</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>9549</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4201; 14554</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3917; 17605</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4875; 16878</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5320</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1693</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1420</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4909; 16947</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3249; 16976</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4749; 16079</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>47577</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>72502</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>20568</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>31362</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>68145</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>94611</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>99964</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36167; 62083</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>48967; 81135</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>56644; 90187</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13204; 31723</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>21379; 43687</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>18524; 38153</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>53133; 86402</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>76504; 117461</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>83249; 121094</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>